--- a/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_05.08.24_output.xlsx
+++ b/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731700068.7610633</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731700069.8099127</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700068.7610633.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700069.8099127.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>2898.95</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>2897.95</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731700069.8247254</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731700070.0840147</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700069.8247254.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700070.0840147.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>2897.95</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>2895.95</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>2</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731700070.185754</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731700071.7522964</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700070.185754.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700071.7522964.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>2893.35</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>2896.05</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>2.700000000000273</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731700072.2047963</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731700073.2988586</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700072.2047963.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700073.2988586.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>2897.95</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>2902.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-4.550000000000182</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731700073.5639231</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731700073.6981492</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700073.5639231.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700073.6981492.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>2902.65</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>2904.9</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>2.25</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731700073.713109</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731700073.7856162</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700073.713109.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700073.7856162.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>2904.9</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2903.55</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.349999999999909</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731700074.1260715</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731700074.8945587</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700074.1260715.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700074.8945587.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>2907.6</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2907.1</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -903,95 +961,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731700075.1593323</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731700075.1593323.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731700075.1593323.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>2904</v>
       </c>
-      <c r="J10" t="n">
-        <v>2904</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2888</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-16</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731700077.9376159</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731700078.2679665</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700077.9376159.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700078.2679665.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>11.925</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>11.927</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.001999999999998892</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731700078.447613</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731700078.6478255</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700078.447613.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700078.6478255.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>11.926</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>11.924</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.002000000000000668</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731700078.9397085</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731700079.0974925</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700078.9397085.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700079.0974925.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>11.925</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>11.926</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.0009999999999994458</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731700079.1376512</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731700079.2481132</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700079.1376512.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700079.2481132.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>11.927</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>11.925</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.001999999999998892</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731700080.198687</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731700081.432889</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700080.198687.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700081.432889.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>11.923</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>11.925</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.002000000000000668</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731700081.5537894</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731700081.6954763</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700081.5537894.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700081.6954763.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>11.927</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>11.924</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.003000000000000114</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731700082.1171246</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731700082.6782417</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700082.1171246.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700082.6782417.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>11.927</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>11.924</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.003000000000000114</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1311,44 +1417,50 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731700083.165821</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731700083.165821.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731700083.165821.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>11.927</v>
       </c>
-      <c r="J18" t="n">
-        <v>11.927</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>11.928</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.001000000000001222</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -1409,16 +1521,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01499999999999879</v>
+        <v>0.01399999999999757</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001874999999999849</v>
+        <v>0.001749999999999696</v>
       </c>
       <c r="E2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F2" t="n">
         <v>0.02</v>
@@ -1431,19 +1543,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.25</v>
+        <v>-12.75</v>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.40625</v>
+        <v>-1.59375</v>
       </c>
       <c r="E3" t="n">
-        <v>0.12</v>
+        <v>-0.4299999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="4">
